--- a/data/dataPaper-I-in/arphified/Bryozoa.xlsx
+++ b/data/dataPaper-I-in/arphified/Bryozoa.xlsx
@@ -876,76 +876,76 @@
     <t>${catalogNumber}</t>
   </si>
   <si>
+    <t>${recordedBy}</t>
+  </si>
+  <si>
+    <t>${individualCount}</t>
+  </si>
+  <si>
+    <t>${sex}</t>
+  </si>
+  <si>
+    <t>PRESENT</t>
+  </si>
+  <si>
+    <t>${taxonName}</t>
+  </si>
+  <si>
+    <t>!references.ref</t>
+  </si>
+  <si>
+    <t>iNaturalist:${iNaturalistTaxonId}</t>
+  </si>
+  <si>
+    <t>${scientificName}</t>
+  </si>
+  <si>
+    <t>${kingdom}</t>
+  </si>
+  <si>
+    <t>${phylum}</t>
+  </si>
+  <si>
+    <t>${class}</t>
+  </si>
+  <si>
+    <t>${order}</t>
+  </si>
+  <si>
+    <t>${family}</t>
+  </si>
+  <si>
+    <t>${genus}</t>
+  </si>
+  <si>
+    <t>${subgenus}</t>
+  </si>
+  <si>
+    <t>Galiano Island</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>British Columbia</t>
+  </si>
+  <si>
+    <t>${locality}</t>
+  </si>
+  <si>
+    <t>${depth}</t>
+  </si>
+  <si>
+    <t>${latitude}</t>
+  </si>
+  <si>
+    <t>${longitude}</t>
+  </si>
+  <si>
     <t>Confidence: ${confidence}</t>
-  </si>
-  <si>
-    <t>${recordedBy}</t>
-  </si>
-  <si>
-    <t>${individualCount}</t>
-  </si>
-  <si>
-    <t>${sex}</t>
-  </si>
-  <si>
-    <t>PRESENT</t>
-  </si>
-  <si>
-    <t>${taxonName}</t>
-  </si>
-  <si>
-    <t>!references.ref</t>
-  </si>
-  <si>
-    <t>iNaturalist:${iNaturalistTaxonId}</t>
-  </si>
-  <si>
-    <t>${scientificName}</t>
-  </si>
-  <si>
-    <t>${kingdom}</t>
-  </si>
-  <si>
-    <t>${phylum}</t>
-  </si>
-  <si>
-    <t>${class}</t>
-  </si>
-  <si>
-    <t>${order}</t>
-  </si>
-  <si>
-    <t>${family}</t>
-  </si>
-  <si>
-    <t>${genus}</t>
-  </si>
-  <si>
-    <t>${subgenus}</t>
-  </si>
-  <si>
-    <t>Galiano Island</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>CA</t>
-  </si>
-  <si>
-    <t>British Columbia</t>
-  </si>
-  <si>
-    <t>${locality}</t>
-  </si>
-  <si>
-    <t>${depth}</t>
-  </si>
-  <si>
-    <t>${latitude}</t>
-  </si>
-  <si>
-    <t>${longitude}</t>
   </si>
   <si>
     <t>!references.samplingProtocol</t>
@@ -3740,301 +3740,301 @@
         <v>36</v>
       </c>
       <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" t="s">
         <v>287</v>
       </c>
-      <c r="G2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" t="s">
         <v>288</v>
       </c>
-      <c r="I2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>289</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" t="s">
         <v>290</v>
       </c>
-      <c r="L2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2" t="s">
         <v>291</v>
       </c>
-      <c r="Q2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S2" t="s">
-        <v>36</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V2" t="s">
         <v>292</v>
       </c>
-      <c r="U2" t="s">
-        <v>36</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y2" t="s">
         <v>293</v>
       </c>
-      <c r="W2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG2" t="s">
         <v>294</v>
       </c>
-      <c r="Z2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN2" t="s">
         <v>295</v>
       </c>
-      <c r="AH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AN2" t="s">
+      <c r="AO2" t="s">
         <v>296</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AP2" t="s">
         <v>297</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AQ2" t="s">
         <v>298</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AR2" t="s">
         <v>299</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AS2" t="s">
         <v>300</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AT2" t="s">
         <v>301</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BK2" t="s">
         <v>302</v>
       </c>
-      <c r="AU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BK2" t="s">
+      <c r="BL2" t="s">
         <v>303</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BM2" t="s">
         <v>304</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="BN2" t="s">
         <v>305</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="BO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BQ2" t="s">
         <v>306</v>
       </c>
-      <c r="BO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BQ2" t="s">
+      <c r="BR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BV2" t="s">
         <v>307</v>
       </c>
-      <c r="BR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BV2" t="s">
+      <c r="BW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CH2" t="s">
         <v>308</v>
       </c>
-      <c r="BW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CH2" t="s">
+      <c r="CI2" t="s">
         <v>309</v>
       </c>
-      <c r="CI2" t="s">
+      <c r="CJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>287</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CZ2" t="s">
         <v>310</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CQ2" t="s">
-        <v>288</v>
-      </c>
-      <c r="CR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CZ2" t="s">
-        <v>36</v>
       </c>
       <c r="DA2" t="s">
         <v>36</v>
@@ -4157,7 +4157,7 @@
         <v>36</v>
       </c>
       <c r="EO2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="EP2" t="s">
         <v>36</v>

--- a/data/dataPaper-I-in/arphified/Bryozoa.xlsx
+++ b/data/dataPaper-I-in/arphified/Bryozoa.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="326">
   <si>
     <t>Taxon_Local_ID</t>
   </si>
@@ -943,6 +943,9 @@
   </si>
   <si>
     <t>${longitude}</t>
+  </si>
+  <si>
+    <t>${coordinateUncertaintyInMeters}</t>
   </si>
   <si>
     <t>Confidence: ${confidence}</t>
@@ -3989,7 +3992,7 @@
         <v>36</v>
       </c>
       <c r="CK2" t="s">
-        <v>36</v>
+        <v>310</v>
       </c>
       <c r="CL2" t="s">
         <v>36</v>
@@ -4034,7 +4037,7 @@
         <v>36</v>
       </c>
       <c r="CZ2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="DA2" t="s">
         <v>36</v>
@@ -4097,13 +4100,13 @@
         <v>36</v>
       </c>
       <c r="DU2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="DV2" t="s">
         <v>36</v>
       </c>
       <c r="DW2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="DX2" t="s">
         <v>36</v>
@@ -4115,13 +4118,13 @@
         <v>36</v>
       </c>
       <c r="EA2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="EB2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="EC2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="ED2" t="s">
         <v>36</v>
@@ -4130,13 +4133,13 @@
         <v>36</v>
       </c>
       <c r="EF2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="EG2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="EH2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="EI2" t="s">
         <v>36</v>
@@ -4169,19 +4172,19 @@
         <v>36</v>
       </c>
       <c r="ES2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="ET2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="EU2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="EV2" t="s">
         <v>36</v>
       </c>
       <c r="EW2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="EX2" t="s">
         <v>36</v>
@@ -4212,10 +4215,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">

--- a/data/dataPaper-I-in/arphified/Bryozoa.xlsx
+++ b/data/dataPaper-I-in/arphified/Bryozoa.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="334">
   <si>
     <t>Taxon_Local_ID</t>
   </si>
@@ -216,6 +216,21 @@
     <t>(Canu &amp; Bassler, 1923)</t>
   </si>
   <si>
+    <t>51796</t>
+  </si>
+  <si>
+    <t>Phidoloporidae</t>
+  </si>
+  <si>
+    <t>Phidolopora</t>
+  </si>
+  <si>
+    <t>pacifica</t>
+  </si>
+  <si>
+    <t>(Robertson, 1908)</t>
+  </si>
+  <si>
     <t>429861</t>
   </si>
   <si>
@@ -234,21 +249,6 @@
     <t>(Hincks, 1883)</t>
   </si>
   <si>
-    <t>51796</t>
-  </si>
-  <si>
-    <t>Phidoloporidae</t>
-  </si>
-  <si>
-    <t>Phidolopora</t>
-  </si>
-  <si>
-    <t>pacifica</t>
-  </si>
-  <si>
-    <t>(Robertson, 1908)</t>
-  </si>
-  <si>
     <t>519486</t>
   </si>
   <si>
@@ -264,7 +264,7 @@
     <t>Ortmann, 1890</t>
   </si>
   <si>
-    <t>Schizoporella japonica is an introduced species in the NEP, although we have at least one other introduced Schizoporella down in California. S. unicornis is now restricted to Europe I believe." (Jim Carlton, pers. comm 2019)</t>
+    <t>Schizoporella japonica is an introduced species in the NEP, although we have at least one other introduced Schizoporella in California. Schizoporella  unicornis is now restricted to Europe." (Jim Carlton pers. comm 2019)</t>
   </si>
   <si>
     <t>360867</t>
@@ -525,6 +525,15 @@
     <t>order</t>
   </si>
   <si>
+    <t>suborder</t>
+  </si>
+  <si>
+    <t>infraorder</t>
+  </si>
+  <si>
+    <t>superfamily</t>
+  </si>
+  <si>
     <t>family</t>
   </si>
   <si>
@@ -897,7 +906,7 @@
     <t>iNaturalist:${iNaturalistTaxonId}</t>
   </si>
   <si>
-    <t>${scientificName}</t>
+    <t>${summary.taxonName}</t>
   </si>
   <si>
     <t>${kingdom}</t>
@@ -912,6 +921,15 @@
     <t>${order}</t>
   </si>
   <si>
+    <t>${suborder}</t>
+  </si>
+  <si>
+    <t>${infraorder}</t>
+  </si>
+  <si>
+    <t>${superfamily}</t>
+  </si>
+  <si>
     <t>${family}</t>
   </si>
   <si>
@@ -921,6 +939,9 @@
     <t>${subgenus}</t>
   </si>
   <si>
+    <t>${summary.Author}</t>
+  </si>
+  <si>
     <t>Galiano Island</t>
   </si>
   <si>
@@ -955,6 +976,9 @@
   </si>
   <si>
     <t>!Date:YYYY-MM-DD</t>
+  </si>
+  <si>
+    <t>!Date:HH:mm:ss</t>
   </si>
   <si>
     <t>!Date:YYYY</t>
@@ -2136,40 +2160,40 @@
         <v>36</v>
       </c>
       <c r="M8" t="s">
+        <v>62</v>
+      </c>
+      <c r="N8" t="s">
         <v>68</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P8" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>36</v>
+      </c>
+      <c r="R8" t="s">
         <v>69</v>
       </c>
-      <c r="O8" t="s">
-        <v>36</v>
-      </c>
-      <c r="P8" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>36</v>
-      </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
+        <v>36</v>
+      </c>
+      <c r="T8" t="s">
         <v>70</v>
       </c>
-      <c r="S8" t="s">
-        <v>36</v>
-      </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
+        <v>36</v>
+      </c>
+      <c r="V8" t="s">
+        <v>36</v>
+      </c>
+      <c r="W8" t="s">
+        <v>36</v>
+      </c>
+      <c r="X8" t="s">
         <v>71</v>
-      </c>
-      <c r="U8" t="s">
-        <v>36</v>
-      </c>
-      <c r="V8" t="s">
-        <v>36</v>
-      </c>
-      <c r="W8" t="s">
-        <v>36</v>
-      </c>
-      <c r="X8" t="s">
-        <v>72</v>
       </c>
       <c r="Y8" t="s">
         <v>36</v>
@@ -2204,7 +2228,7 @@
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B9" t="s">
         <v>35</v>
@@ -2240,7 +2264,7 @@
         <v>36</v>
       </c>
       <c r="M9" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="N9" t="s">
         <v>74</v>
@@ -2344,7 +2368,7 @@
         <v>36</v>
       </c>
       <c r="M10" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="N10" t="s">
         <v>79</v>
@@ -3093,7 +3117,7 @@
         <v>36</v>
       </c>
       <c r="T17" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="U17" t="s">
         <v>36</v>
@@ -3250,10 +3274,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FA2"/>
+  <dimension ref="A1:FD2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:157" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:160" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3725,19 +3749,28 @@
       <c r="FA1" t="s">
         <v>283</v>
       </c>
+      <c r="FB1" t="s">
+        <v>284</v>
+      </c>
+      <c r="FC1" t="s">
+        <v>285</v>
+      </c>
+      <c r="FD1" t="s">
+        <v>286</v>
+      </c>
     </row>
-    <row r="2" spans="1:157" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:160" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B2" t="s">
         <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D2" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="E2" t="s">
         <v>36</v>
@@ -3749,16 +3782,16 @@
         <v>36</v>
       </c>
       <c r="H2" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="I2" t="s">
         <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="K2" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="L2" t="s">
         <v>36</v>
@@ -3773,429 +3806,438 @@
         <v>36</v>
       </c>
       <c r="P2" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2" t="s">
+        <v>294</v>
+      </c>
+      <c r="U2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V2" t="s">
+        <v>295</v>
+      </c>
+      <c r="W2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>296</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>297</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>298</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>299</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>300</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>301</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>302</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>303</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>304</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>305</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>306</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>307</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>308</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>309</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>310</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>311</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>312</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>313</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>314</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>315</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>316</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>317</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CT2" t="s">
         <v>290</v>
       </c>
-      <c r="Q2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S2" t="s">
-        <v>36</v>
-      </c>
-      <c r="T2" t="s">
-        <v>291</v>
-      </c>
-      <c r="U2" t="s">
-        <v>36</v>
-      </c>
-      <c r="V2" t="s">
-        <v>292</v>
-      </c>
-      <c r="W2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>293</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>294</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AN2" t="s">
+      <c r="CU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>318</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DX2" t="s">
+        <v>319</v>
+      </c>
+      <c r="DY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DZ2" t="s">
+        <v>320</v>
+      </c>
+      <c r="EA2" t="s">
+        <v>321</v>
+      </c>
+      <c r="EB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="ED2" t="s">
+        <v>322</v>
+      </c>
+      <c r="EE2" t="s">
+        <v>323</v>
+      </c>
+      <c r="EF2" t="s">
+        <v>324</v>
+      </c>
+      <c r="EG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EI2" t="s">
+        <v>325</v>
+      </c>
+      <c r="EJ2" t="s">
+        <v>326</v>
+      </c>
+      <c r="EK2" t="s">
+        <v>327</v>
+      </c>
+      <c r="EL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="ER2" t="s">
         <v>295</v>
       </c>
-      <c r="AO2" t="s">
-        <v>296</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>297</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>298</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>299</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>300</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>301</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>302</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>303</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>304</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>305</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>306</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>307</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CH2" t="s">
-        <v>308</v>
-      </c>
-      <c r="CI2" t="s">
-        <v>309</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CK2" t="s">
-        <v>310</v>
-      </c>
-      <c r="CL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CQ2" t="s">
-        <v>287</v>
-      </c>
-      <c r="CR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CZ2" t="s">
-        <v>311</v>
-      </c>
-      <c r="DA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DU2" t="s">
-        <v>312</v>
-      </c>
-      <c r="DV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DW2" t="s">
-        <v>313</v>
-      </c>
-      <c r="DX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EA2" t="s">
-        <v>314</v>
-      </c>
-      <c r="EB2" t="s">
-        <v>315</v>
-      </c>
-      <c r="EC2" t="s">
-        <v>316</v>
-      </c>
-      <c r="ED2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EF2" t="s">
-        <v>317</v>
-      </c>
-      <c r="EG2" t="s">
-        <v>318</v>
-      </c>
-      <c r="EH2" t="s">
-        <v>319</v>
-      </c>
-      <c r="EI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EO2" t="s">
-        <v>292</v>
-      </c>
-      <c r="EP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="ER2" t="s">
-        <v>36</v>
-      </c>
       <c r="ES2" t="s">
-        <v>320</v>
+        <v>36</v>
       </c>
       <c r="ET2" t="s">
-        <v>321</v>
+        <v>36</v>
       </c>
       <c r="EU2" t="s">
-        <v>322</v>
+        <v>36</v>
       </c>
       <c r="EV2" t="s">
-        <v>36</v>
+        <v>328</v>
       </c>
       <c r="EW2" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="EX2" t="s">
-        <v>36</v>
+        <v>330</v>
       </c>
       <c r="EY2" t="s">
         <v>36</v>
       </c>
       <c r="EZ2" t="s">
-        <v>36</v>
+        <v>331</v>
       </c>
       <c r="FA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="FB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="FC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="FD2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -4215,10 +4257,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C1" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">

--- a/data/dataPaper-I-in/arphified/Bryozoa.xlsx
+++ b/data/dataPaper-I-in/arphified/Bryozoa.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="327">
   <si>
     <t>Taxon_Local_ID</t>
   </si>
@@ -525,15 +525,6 @@
     <t>order</t>
   </si>
   <si>
-    <t>suborder</t>
-  </si>
-  <si>
-    <t>infraorder</t>
-  </si>
-  <si>
-    <t>superfamily</t>
-  </si>
-  <si>
     <t>family</t>
   </si>
   <si>
@@ -876,9 +867,6 @@
     <t>source</t>
   </si>
   <si>
-    <t>${iNaturalistTaxonId}</t>
-  </si>
-  <si>
     <t>${gbifOccurrenceID}</t>
   </si>
   <si>
@@ -921,15 +909,6 @@
     <t>${order}</t>
   </si>
   <si>
-    <t>${suborder}</t>
-  </si>
-  <si>
-    <t>${infraorder}</t>
-  </si>
-  <si>
-    <t>${superfamily}</t>
-  </si>
-  <si>
     <t>${family}</t>
   </si>
   <si>
@@ -939,7 +918,7 @@
     <t>${subgenus}</t>
   </si>
   <si>
-    <t>${summary.Author}</t>
+    <t>${summary.authority}</t>
   </si>
   <si>
     <t>Galiano Island</t>
@@ -3274,970 +3253,946 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FD2"/>
+  <dimension ref="A1:EZ2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:160" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:156" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="B1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="R1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="S1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="T1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="U1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="V1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="X1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Z1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AA1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AB1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AC1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AD1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AE1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AH1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AI1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AJ1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AK1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AL1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AM1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AN1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AO1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AP1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AQ1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AR1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AS1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AT1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AU1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AV1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AW1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AX1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AY1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AZ1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="BA1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="BB1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="BC1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="BD1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BE1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BF1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="BG1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="BH1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="BI1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="BJ1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="BK1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="BL1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="BM1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="BN1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="BO1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="BP1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="BQ1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="BR1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="BS1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="BT1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="BU1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="BV1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="BW1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="BX1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="BY1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="BZ1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="CA1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="CB1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="CC1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="CD1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="CE1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="CF1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="CG1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="CH1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="CI1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="CJ1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="CK1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="CL1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="CM1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="CN1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="CO1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="CP1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="CQ1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="CR1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="CS1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="CT1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="CU1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="CV1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="CW1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="CX1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="CY1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="CZ1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="DA1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="DB1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="DC1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="DD1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="DE1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="DF1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="DG1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="DH1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="DI1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="DJ1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="DK1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="DL1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="DM1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="DN1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="DO1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="DP1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="DQ1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="DR1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="DS1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="DT1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="DU1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="DV1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="DW1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="DX1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="DY1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="DZ1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="EA1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="EB1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="EC1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="ED1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="EE1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="EF1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="EG1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="EH1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="EI1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="EJ1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="EK1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="EL1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="EM1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="EN1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="EO1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="EP1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="EQ1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="ER1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="ES1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="ET1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="EU1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="EV1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="EW1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="EX1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="EY1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="EZ1" t="s">
-        <v>282</v>
-      </c>
-      <c r="FA1" t="s">
         <v>283</v>
       </c>
-      <c r="FB1" t="s">
+    </row>
+    <row r="2" spans="1:156" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
         <v>284</v>
       </c>
-      <c r="FC1" t="s">
+      <c r="C2" t="s">
         <v>285</v>
       </c>
-      <c r="FD1" t="s">
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="2" spans="1:160" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" t="s">
         <v>287</v>
       </c>
-      <c r="B2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="J2" t="s">
         <v>288</v>
       </c>
-      <c r="D2" t="s">
+      <c r="K2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" t="s">
         <v>289</v>
       </c>
-      <c r="E2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="P2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" t="s">
         <v>290</v>
       </c>
-      <c r="I2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="T2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" t="s">
         <v>291</v>
       </c>
-      <c r="K2" t="s">
+      <c r="V2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" t="s">
         <v>292</v>
       </c>
-      <c r="L2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="Y2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF2" t="s">
         <v>293</v>
       </c>
-      <c r="Q2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S2" t="s">
-        <v>36</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="AG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM2" t="s">
         <v>294</v>
       </c>
-      <c r="U2" t="s">
-        <v>36</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="AN2" t="s">
         <v>295</v>
       </c>
-      <c r="W2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y2" t="s">
+      <c r="AO2" t="s">
         <v>296</v>
       </c>
-      <c r="Z2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG2" t="s">
+      <c r="AP2" t="s">
         <v>297</v>
       </c>
-      <c r="AH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AN2" t="s">
+      <c r="AQ2" t="s">
         <v>298</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AR2" t="s">
         <v>299</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AS2" t="s">
         <v>300</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX2" t="s">
         <v>301</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BJ2" t="s">
         <v>302</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="BK2" t="s">
         <v>303</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="BL2" t="s">
         <v>304</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="BM2" t="s">
         <v>305</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="BN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BP2" t="s">
         <v>306</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="BQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BU2" t="s">
         <v>307</v>
       </c>
-      <c r="AX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BB2" t="s">
+      <c r="BV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CG2" t="s">
         <v>308</v>
       </c>
-      <c r="BC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BN2" t="s">
+      <c r="CH2" t="s">
         <v>309</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="CI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CJ2" t="s">
         <v>310</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="CK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>286</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CY2" t="s">
         <v>311</v>
       </c>
-      <c r="BQ2" t="s">
+      <c r="CZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DT2" t="s">
         <v>312</v>
       </c>
-      <c r="BR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BT2" t="s">
+      <c r="DU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DV2" t="s">
         <v>313</v>
       </c>
-      <c r="BU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BY2" t="s">
+      <c r="DW2" t="s">
         <v>314</v>
       </c>
-      <c r="BZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CK2" t="s">
+      <c r="DX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DZ2" t="s">
         <v>315</v>
       </c>
-      <c r="CL2" t="s">
+      <c r="EA2" t="s">
         <v>316</v>
       </c>
-      <c r="CM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CN2" t="s">
+      <c r="EB2" t="s">
         <v>317</v>
       </c>
-      <c r="CO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>290</v>
-      </c>
-      <c r="CU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DC2" t="s">
+      <c r="EC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="ED2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EE2" t="s">
         <v>318</v>
       </c>
-      <c r="DD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DX2" t="s">
+      <c r="EF2" t="s">
         <v>319</v>
       </c>
-      <c r="DY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DZ2" t="s">
+      <c r="EG2" t="s">
         <v>320</v>
       </c>
-      <c r="EA2" t="s">
+      <c r="EH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EN2" t="s">
+        <v>291</v>
+      </c>
+      <c r="EO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="ER2" t="s">
         <v>321</v>
       </c>
-      <c r="EB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="ED2" t="s">
+      <c r="ES2" t="s">
         <v>322</v>
       </c>
-      <c r="EE2" t="s">
+      <c r="ET2" t="s">
         <v>323</v>
       </c>
-      <c r="EF2" t="s">
+      <c r="EU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EV2" t="s">
         <v>324</v>
       </c>
-      <c r="EG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EI2" t="s">
-        <v>325</v>
-      </c>
-      <c r="EJ2" t="s">
-        <v>326</v>
-      </c>
-      <c r="EK2" t="s">
-        <v>327</v>
-      </c>
-      <c r="EL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="ER2" t="s">
-        <v>295</v>
-      </c>
-      <c r="ES2" t="s">
-        <v>36</v>
-      </c>
-      <c r="ET2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EV2" t="s">
-        <v>328</v>
-      </c>
       <c r="EW2" t="s">
-        <v>329</v>
+        <v>36</v>
       </c>
       <c r="EX2" t="s">
-        <v>330</v>
+        <v>36</v>
       </c>
       <c r="EY2" t="s">
         <v>36</v>
       </c>
       <c r="EZ2" t="s">
-        <v>331</v>
-      </c>
-      <c r="FA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="FB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="FC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="FD2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -4257,10 +4212,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="C1" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">

--- a/data/dataPaper-I-in/arphified/Bryozoa.xlsx
+++ b/data/dataPaper-I-in/arphified/Bryozoa.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="325">
   <si>
     <t>Taxon_Local_ID</t>
   </si>
@@ -531,9 +531,6 @@
     <t>genus</t>
   </si>
   <si>
-    <t>subgenus</t>
-  </si>
-  <si>
     <t>specificEpithet</t>
   </si>
   <si>
@@ -913,9 +910,6 @@
   </si>
   <si>
     <t>${genus}</t>
-  </si>
-  <si>
-    <t>${subgenus}</t>
   </si>
   <si>
     <t>${summary.authority}</t>
@@ -3253,10 +3247,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EZ2"/>
+  <dimension ref="A1:EY2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:156" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>128</v>
       </c>
@@ -3722,466 +3716,463 @@
       <c r="EY1" t="s">
         <v>282</v>
       </c>
-      <c r="EZ1" t="s">
+    </row>
+    <row r="2" spans="1:155" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="2" spans="1:156" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>284</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
         <v>285</v>
       </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" t="s">
         <v>286</v>
       </c>
-      <c r="H2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>287</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" t="s">
         <v>288</v>
       </c>
-      <c r="K2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" t="s">
         <v>289</v>
       </c>
-      <c r="P2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" t="s">
         <v>290</v>
       </c>
-      <c r="T2" t="s">
-        <v>36</v>
-      </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" t="s">
         <v>291</v>
       </c>
-      <c r="V2" t="s">
-        <v>36</v>
-      </c>
-      <c r="W2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF2" t="s">
         <v>292</v>
       </c>
-      <c r="Y2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM2" t="s">
         <v>293</v>
       </c>
-      <c r="AG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM2" t="s">
+      <c r="AN2" t="s">
         <v>294</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AO2" t="s">
         <v>295</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AP2" t="s">
         <v>296</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AQ2" t="s">
         <v>297</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AR2" t="s">
         <v>298</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AW2" t="s">
         <v>299</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BI2" t="s">
         <v>300</v>
       </c>
-      <c r="AT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AX2" t="s">
+      <c r="BJ2" t="s">
         <v>301</v>
       </c>
-      <c r="AY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BJ2" t="s">
+      <c r="BK2" t="s">
         <v>302</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="BL2" t="s">
         <v>303</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BO2" t="s">
         <v>304</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="BP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BT2" t="s">
         <v>305</v>
       </c>
-      <c r="BN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BP2" t="s">
+      <c r="BU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CF2" t="s">
         <v>306</v>
       </c>
-      <c r="BQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BU2" t="s">
+      <c r="CG2" t="s">
         <v>307</v>
       </c>
-      <c r="BV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CG2" t="s">
+      <c r="CH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CI2" t="s">
         <v>308</v>
       </c>
-      <c r="CH2" t="s">
+      <c r="CJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>285</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CX2" t="s">
         <v>309</v>
       </c>
-      <c r="CI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CJ2" t="s">
+      <c r="CY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DS2" t="s">
         <v>310</v>
       </c>
-      <c r="CK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>286</v>
-      </c>
-      <c r="CQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CY2" t="s">
+      <c r="DT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DU2" t="s">
         <v>311</v>
       </c>
-      <c r="CZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DT2" t="s">
+      <c r="DV2" t="s">
         <v>312</v>
       </c>
-      <c r="DU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DV2" t="s">
+      <c r="DW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DY2" t="s">
         <v>313</v>
       </c>
-      <c r="DW2" t="s">
+      <c r="DZ2" t="s">
         <v>314</v>
       </c>
-      <c r="DX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DZ2" t="s">
+      <c r="EA2" t="s">
         <v>315</v>
       </c>
-      <c r="EA2" t="s">
+      <c r="EB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="ED2" t="s">
         <v>316</v>
       </c>
-      <c r="EB2" t="s">
+      <c r="EE2" t="s">
         <v>317</v>
       </c>
-      <c r="EC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="ED2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EE2" t="s">
+      <c r="EF2" t="s">
         <v>318</v>
       </c>
-      <c r="EF2" t="s">
+      <c r="EG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EM2" t="s">
+        <v>290</v>
+      </c>
+      <c r="EN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EQ2" t="s">
         <v>319</v>
       </c>
-      <c r="EG2" t="s">
+      <c r="ER2" t="s">
         <v>320</v>
       </c>
-      <c r="EH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EN2" t="s">
-        <v>291</v>
-      </c>
-      <c r="EO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="ER2" t="s">
+      <c r="ES2" t="s">
         <v>321</v>
       </c>
-      <c r="ES2" t="s">
+      <c r="ET2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EU2" t="s">
         <v>322</v>
       </c>
-      <c r="ET2" t="s">
-        <v>323</v>
-      </c>
-      <c r="EU2" t="s">
-        <v>36</v>
-      </c>
       <c r="EV2" t="s">
-        <v>324</v>
+        <v>36</v>
       </c>
       <c r="EW2" t="s">
         <v>36</v>
@@ -4190,9 +4181,6 @@
         <v>36</v>
       </c>
       <c r="EY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EZ2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -4212,10 +4200,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
